--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD777B64-FD38-4D0A-98E8-E4DA9A1CD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313870AC-6C9E-41D7-A534-35EEBB072A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="34560" windowHeight="13644" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="313">
   <si>
     <t>Typ jednostki wytwórczej</t>
   </si>
@@ -1032,9 +1032,6 @@
     <t>PRE</t>
   </si>
   <si>
-    <t>TRANSF_HV-LV</t>
-  </si>
-  <si>
     <t>Electricity Transformation and Distribution High Voltage to Low Voltage</t>
   </si>
   <si>
@@ -1646,6 +1643,15 @@
   </si>
   <si>
     <t>* Transmission &amp; Distribution Losses / Straty przesyłu i dystrybucji</t>
+  </si>
+  <si>
+    <t>TRANSF_HV-HV</t>
+  </si>
+  <si>
+    <t>TRANSF_MV-MV</t>
+  </si>
+  <si>
+    <t>TRANSF_LV-LV</t>
   </si>
 </sst>
 </file>
@@ -3539,21 +3545,6 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3604,9 +3595,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="31" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3716,18 +3704,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5139,8 +5133,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5159,28 +5153,28 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="188" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="188"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="209"/>
     </row>
     <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="209" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="209"/>
     </row>
     <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="299" t="s">
-        <v>223</v>
+      <c r="C6" s="293" t="s">
+        <v>222</v>
       </c>
       <c r="D6" s="212" t="s">
         <v>1</v>
@@ -5205,33 +5199,33 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="297"/>
-      <c r="C7" s="300"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="294"/>
       <c r="D7" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="F7" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="G7" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="139" t="s">
+      <c r="H7" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="139" t="s">
-        <v>228</v>
-      </c>
       <c r="I7" s="139" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="J7" s="139" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="298"/>
-      <c r="C8" s="301"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="295"/>
       <c r="D8" s="208" t="s">
         <v>6</v>
       </c>
@@ -5258,8 +5252,8 @@
       <c r="B9" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="284" t="s">
-        <v>229</v>
+      <c r="C9" s="278" t="s">
+        <v>228</v>
       </c>
       <c r="D9" s="207">
         <v>17023.8</v>
@@ -5281,8 +5275,8 @@
       <c r="B10" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="284" t="s">
-        <v>230</v>
+      <c r="C10" s="278" t="s">
+        <v>229</v>
       </c>
       <c r="D10" s="207">
         <v>7391.2</v>
@@ -5304,8 +5298,8 @@
       <c r="B11" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="284" t="s">
-        <v>231</v>
+      <c r="C11" s="278" t="s">
+        <v>230</v>
       </c>
       <c r="D11" s="207">
         <v>4094.6000000000022</v>
@@ -5329,8 +5323,8 @@
       <c r="B12" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="284" t="s">
-        <v>232</v>
+      <c r="C12" s="278" t="s">
+        <v>231</v>
       </c>
       <c r="D12" s="207">
         <v>1656.5</v>
@@ -5354,8 +5348,8 @@
       <c r="B13" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="284" t="s">
-        <v>233</v>
+      <c r="C13" s="278" t="s">
+        <v>232</v>
       </c>
       <c r="D13" s="207">
         <v>6227.6934486274804</v>
@@ -5373,8 +5367,8 @@
       <c r="B14" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="284" t="s">
-        <v>234</v>
+      <c r="C14" s="278" t="s">
+        <v>233</v>
       </c>
       <c r="D14" s="207">
         <v>3954.96</v>
@@ -5392,8 +5386,8 @@
       <c r="B15" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="285" t="s">
-        <v>235</v>
+      <c r="C15" s="279" t="s">
+        <v>234</v>
       </c>
       <c r="D15" s="229">
         <v>19.806000000000001</v>
@@ -5415,8 +5409,8 @@
       <c r="B16" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="286" t="s">
-        <v>236</v>
+      <c r="C16" s="280" t="s">
+        <v>235</v>
       </c>
       <c r="D16" s="219"/>
       <c r="E16" s="220">
@@ -5434,7 +5428,7 @@
     </row>
     <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="211"/>
     </row>
@@ -5445,14 +5439,14 @@
       <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="291" t="s">
-        <v>268</v>
+      <c r="B19" s="285" t="s">
+        <v>267</v>
       </c>
       <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="211" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="211"/>
     </row>
@@ -5472,7 +5466,7 @@
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="188"/>
       <c r="D23" s="209"/>
@@ -5481,7 +5475,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="209"/>
       <c r="D25" s="209"/>
@@ -5490,7 +5484,7 @@
     </row>
     <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="209" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="209"/>
       <c r="D26" s="209"/>
@@ -5498,11 +5492,11 @@
       <c r="F26" s="209"/>
     </row>
     <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="294" t="s">
+      <c r="B27" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="292" t="s">
-        <v>240</v>
+      <c r="C27" s="286" t="s">
+        <v>239</v>
       </c>
       <c r="D27" s="212" t="s">
         <v>22</v>
@@ -5513,13 +5507,13 @@
       <c r="F27" s="209"/>
     </row>
     <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="295"/>
-      <c r="C28" s="293"/>
+      <c r="B28" s="289"/>
+      <c r="C28" s="287"/>
       <c r="D28" s="139" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="290" t="s">
-        <v>143</v>
+        <v>244</v>
+      </c>
+      <c r="E28" s="284" t="s">
+        <v>142</v>
       </c>
       <c r="F28" s="209"/>
     </row>
@@ -5527,11 +5521,11 @@
       <c r="B29" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="287" t="s">
-        <v>241</v>
+      <c r="C29" s="281" t="s">
+        <v>240</v>
       </c>
       <c r="D29" s="208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29" s="224">
         <v>0.97706171756374371</v>
@@ -5543,11 +5537,11 @@
       <c r="B30" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="287" t="s">
-        <v>241</v>
+      <c r="C30" s="281" t="s">
+        <v>240</v>
       </c>
       <c r="D30" s="208" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E30" s="224">
         <v>0.9764416403645515</v>
@@ -5559,11 +5553,11 @@
       <c r="B31" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="287" t="s">
-        <v>241</v>
+      <c r="C31" s="281" t="s">
+        <v>240</v>
       </c>
       <c r="D31" s="208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E31" s="224">
         <v>0.9515253427786764</v>
@@ -5575,11 +5569,11 @@
       <c r="B32" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="288" t="s">
-        <v>242</v>
+      <c r="C32" s="282" t="s">
+        <v>241</v>
       </c>
       <c r="D32" s="226" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E32" s="227">
         <v>0.85899999999999999</v>
@@ -5588,7 +5582,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" s="209"/>
       <c r="D33" s="209"/>
@@ -5598,7 +5592,7 @@
       <c r="P33" s="143"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="291" t="s">
+      <c r="B34" s="285" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="209"/>
@@ -5607,8 +5601,8 @@
       <c r="F34" s="209"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="291" t="s">
-        <v>268</v>
+      <c r="B35" s="285" t="s">
+        <v>267</v>
       </c>
       <c r="C35" s="209"/>
       <c r="D35" s="209"/>
@@ -5631,7 +5625,7 @@
     </row>
     <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="188" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C38" s="188"/>
       <c r="D38" s="209"/>
@@ -5647,7 +5641,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="209"/>
       <c r="D40" s="209"/>
@@ -5656,7 +5650,7 @@
     </row>
     <row r="41" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="209" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41" s="209"/>
       <c r="D41" s="209"/>
@@ -5664,11 +5658,11 @@
       <c r="F41" s="209"/>
     </row>
     <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="294" t="s">
+      <c r="B42" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="292" t="s">
-        <v>240</v>
+      <c r="C42" s="286" t="s">
+        <v>239</v>
       </c>
       <c r="D42" s="228" t="s">
         <v>26</v>
@@ -5679,13 +5673,13 @@
       <c r="F42" s="209"/>
     </row>
     <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="295"/>
-      <c r="C43" s="293"/>
+      <c r="B43" s="289"/>
+      <c r="C43" s="287"/>
       <c r="D43" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="289" t="s">
-        <v>250</v>
+      <c r="E43" s="283" t="s">
+        <v>249</v>
       </c>
       <c r="F43" s="209"/>
     </row>
@@ -5693,8 +5687,8 @@
       <c r="B44" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="287" t="s">
-        <v>241</v>
+      <c r="C44" s="281" t="s">
+        <v>240</v>
       </c>
       <c r="D44" s="208" t="s">
         <v>28</v>
@@ -5709,8 +5703,8 @@
       <c r="B45" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="288" t="s">
-        <v>242</v>
+      <c r="C45" s="282" t="s">
+        <v>241</v>
       </c>
       <c r="D45" s="226" t="s">
         <v>29</v>
@@ -5723,7 +5717,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="211" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C46" s="209"/>
       <c r="D46" s="209"/>
@@ -5731,7 +5725,7 @@
       <c r="F46" s="209"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="291" t="s">
+      <c r="B47" s="285" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="209"/>
@@ -5740,8 +5734,8 @@
       <c r="F47" s="209"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="291" t="s">
-        <v>268</v>
+      <c r="B48" s="285" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -5770,7 +5764,7 @@
   </sheetPr>
   <dimension ref="B1:AL35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
@@ -5811,17 +5805,17 @@
   <sheetData>
     <row r="1" spans="2:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B3" s="115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5831,19 +5825,19 @@
       <c r="D6" s="111"/>
       <c r="E6" s="110"/>
       <c r="F6" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="108" t="s">
         <v>282</v>
-      </c>
-      <c r="G6" s="108" t="s">
-        <v>283</v>
       </c>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
       <c r="J6" s="107"/>
       <c r="K6" s="106" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L6" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M6" s="105">
         <v>144879.37399999998</v>
@@ -5853,19 +5847,19 @@
       <c r="P6" s="111"/>
       <c r="Q6" s="104"/>
       <c r="R6" s="103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S6" s="102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T6" s="101"/>
       <c r="U6" s="101"/>
       <c r="V6" s="101"/>
       <c r="W6" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="X6" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="X6" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="Y6" s="99">
         <v>7209.7110000000002</v>
@@ -5884,7 +5878,7 @@
       <c r="G7" s="94"/>
       <c r="N7" s="98"/>
       <c r="O7" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P7" s="96"/>
       <c r="Q7" s="92"/>
@@ -5894,7 +5888,7 @@
       <c r="V7" s="88"/>
       <c r="Z7" s="98"/>
       <c r="AA7" s="93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB7" s="96"/>
     </row>
@@ -5904,10 +5898,10 @@
       <c r="D8" s="85"/>
       <c r="E8" s="84"/>
       <c r="F8" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="81"/>
       <c r="N8" s="87"/>
@@ -5968,17 +5962,17 @@
       <c r="D12" s="111"/>
       <c r="E12" s="107"/>
       <c r="F12" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G12" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="H12" s="79"/>
       <c r="K12" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="L12" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="L12" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="M12" s="69">
         <v>105527.87399999998</v>
@@ -5990,10 +5984,10 @@
         <v>109718.511</v>
       </c>
       <c r="R12" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S12" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T12" s="65"/>
       <c r="U12" s="77">
@@ -6001,10 +5995,10 @@
       </c>
       <c r="V12" s="90"/>
       <c r="W12" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="X12" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="X12" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="Y12" s="64"/>
       <c r="Z12" s="113"/>
@@ -6012,10 +6006,10 @@
       <c r="AB12" s="111"/>
       <c r="AC12" s="63"/>
       <c r="AD12" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE12" s="61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF12" s="113"/>
       <c r="AG12" s="112"/>
@@ -6032,7 +6026,7 @@
       <c r="H13" s="79"/>
       <c r="N13" s="98"/>
       <c r="O13" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P13" s="96"/>
       <c r="S13" s="59"/>
@@ -6041,12 +6035,12 @@
       <c r="Y13" s="58"/>
       <c r="Z13" s="98"/>
       <c r="AA13" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB13" s="96"/>
       <c r="AF13" s="98"/>
       <c r="AG13" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH13" s="96"/>
       <c r="AI13" s="60"/>
@@ -6057,19 +6051,19 @@
       <c r="D14" s="85"/>
       <c r="E14" s="81"/>
       <c r="F14" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H14" s="57"/>
       <c r="I14" s="56"/>
       <c r="J14" s="81"/>
       <c r="K14" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M14" s="54">
         <v>8049.0010000000002</v>
@@ -6081,22 +6075,22 @@
       <c r="U14" s="53"/>
       <c r="V14" s="52"/>
       <c r="W14" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X14" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y14" s="50"/>
       <c r="AA14" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB14" s="96"/>
       <c r="AD14" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF14" s="98"/>
       <c r="AG14" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH14" s="96"/>
       <c r="AI14" s="60"/>
@@ -6119,11 +6113,11 @@
       <c r="Z15" s="98"/>
       <c r="AB15" s="96"/>
       <c r="AD15" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF15" s="98"/>
       <c r="AG15" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH15" s="96"/>
       <c r="AI15" s="60"/>
@@ -6137,17 +6131,17 @@
       <c r="U16" s="42"/>
       <c r="V16" s="41"/>
       <c r="W16" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X16" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y16" s="38"/>
       <c r="Z16" s="87"/>
       <c r="AA16" s="86"/>
       <c r="AB16" s="85"/>
       <c r="AD16" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF16" s="87"/>
       <c r="AG16" s="86"/>
@@ -6180,19 +6174,19 @@
       <c r="D18" s="111"/>
       <c r="E18" s="107"/>
       <c r="F18" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G18" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="44"/>
       <c r="J18" s="53"/>
       <c r="K18" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M18" s="33">
         <v>57896.275999999998</v>
@@ -6204,10 +6198,10 @@
         <v>56087.057999999997</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S18" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T18" s="30">
         <v>56087.057999999997</v>
@@ -6218,14 +6212,14 @@
     <row r="19" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="98"/>
       <c r="C19" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" s="96"/>
       <c r="G19" s="94"/>
       <c r="H19" s="79"/>
       <c r="N19" s="98"/>
       <c r="O19" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P19" s="96"/>
       <c r="T19" s="29"/>
@@ -6238,17 +6232,17 @@
       <c r="D20" s="85"/>
       <c r="E20" s="81"/>
       <c r="F20" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H20" s="57"/>
       <c r="K20" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M20" s="26">
         <v>1197.2349999999999</v>
@@ -6282,10 +6276,10 @@
       <c r="U21" s="53"/>
       <c r="V21" s="90"/>
       <c r="W21" s="100" t="s">
+        <v>282</v>
+      </c>
+      <c r="X21" s="103" t="s">
         <v>283</v>
-      </c>
-      <c r="X21" s="103" t="s">
-        <v>284</v>
       </c>
       <c r="Y21" s="64"/>
       <c r="Z21" s="113"/>
@@ -6293,16 +6287,16 @@
       <c r="AB21" s="111"/>
       <c r="AC21" s="63"/>
       <c r="AD21" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE21" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF21" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG21" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH21" s="22"/>
       <c r="AI21" s="113"/>
@@ -6319,13 +6313,13 @@
       <c r="Y22" s="58"/>
       <c r="Z22" s="98"/>
       <c r="AA22" s="49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB22" s="96"/>
       <c r="AE22" s="21"/>
       <c r="AI22" s="98"/>
       <c r="AJ22" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK22" s="96"/>
       <c r="AL22" s="60"/>
@@ -6335,12 +6329,12 @@
       <c r="H23" s="79"/>
       <c r="J23" s="25"/>
       <c r="M23" s="115" t="s">
-        <v>302</v>
-      </c>
-      <c r="P23" s="310">
+        <v>301</v>
+      </c>
+      <c r="P23" s="304">
         <v>154125.60999999996</v>
       </c>
-      <c r="Q23" s="310"/>
+      <c r="Q23" s="304"/>
       <c r="R23" s="115" t="s">
         <v>7</v>
       </c>
@@ -6348,24 +6342,24 @@
       <c r="U23" s="53"/>
       <c r="V23" s="65"/>
       <c r="W23" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X23" s="67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="98"/>
       <c r="AA23" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB23" s="96"/>
       <c r="AE23" s="19"/>
       <c r="AG23" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AI23" s="98"/>
       <c r="AJ23" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AK23" s="96"/>
       <c r="AL23" s="60"/>
@@ -6378,20 +6372,20 @@
         <v>12579.937</v>
       </c>
       <c r="F24" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="H24" s="79"/>
       <c r="J24" s="25"/>
       <c r="M24" s="115" t="s">
-        <v>304</v>
-      </c>
-      <c r="P24" s="310">
+        <v>303</v>
+      </c>
+      <c r="P24" s="304">
         <v>142240.554</v>
       </c>
-      <c r="Q24" s="310"/>
+      <c r="Q24" s="304"/>
       <c r="R24" s="115" t="s">
         <v>7</v>
       </c>
@@ -6401,11 +6395,11 @@
       <c r="AB24" s="96"/>
       <c r="AE24" s="19"/>
       <c r="AG24" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AI24" s="98"/>
       <c r="AJ24" s="93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK24" s="96"/>
       <c r="AL24" s="60"/>
@@ -6418,12 +6412,12 @@
       <c r="H25" s="79"/>
       <c r="J25" s="25"/>
       <c r="M25" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="P25" s="310">
+        <v>304</v>
+      </c>
+      <c r="P25" s="304">
         <v>1075.1959999999999</v>
       </c>
-      <c r="Q25" s="310"/>
+      <c r="Q25" s="304"/>
       <c r="R25" s="115" t="s">
         <v>7</v>
       </c>
@@ -6431,10 +6425,10 @@
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X25" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y25" s="17"/>
       <c r="Z25" s="87"/>
@@ -6442,7 +6436,7 @@
       <c r="AB25" s="85"/>
       <c r="AE25" s="19"/>
       <c r="AG25" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI25" s="87"/>
       <c r="AJ25" s="86"/>
@@ -6452,27 +6446,27 @@
     <row r="26" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="98"/>
       <c r="C26" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" s="96"/>
       <c r="E26" s="16">
         <v>5779.1689999999999</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H26" s="57"/>
       <c r="J26" s="25"/>
       <c r="M26" s="115" t="s">
-        <v>307</v>
-      </c>
-      <c r="P26" s="310">
+        <v>306</v>
+      </c>
+      <c r="P26" s="304">
         <v>1620.396</v>
       </c>
-      <c r="Q26" s="310"/>
+      <c r="Q26" s="304"/>
       <c r="R26" s="115" t="s">
         <v>7</v>
       </c>
@@ -6488,12 +6482,12 @@
       <c r="J27" s="25"/>
       <c r="K27" s="14"/>
       <c r="M27" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="P27" s="311">
+        <v>307</v>
+      </c>
+      <c r="P27" s="305">
         <v>5.9623212521267233E-2</v>
       </c>
-      <c r="Q27" s="311"/>
+      <c r="Q27" s="305"/>
       <c r="Y27" s="58"/>
       <c r="AE27" s="19"/>
       <c r="AL27" s="60"/>
@@ -6504,10 +6498,10 @@
       <c r="D28" s="85"/>
       <c r="E28" s="13"/>
       <c r="F28" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -6519,10 +6513,10 @@
       <c r="AB28" s="111"/>
       <c r="AC28" s="63"/>
       <c r="AD28" s="62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL28" s="60"/>
     </row>
@@ -6532,7 +6526,7 @@
       <c r="Y29" s="58"/>
       <c r="Z29" s="98"/>
       <c r="AA29" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB29" s="96"/>
       <c r="AL29" s="60"/>
@@ -6543,7 +6537,7 @@
       <c r="Y30" s="58"/>
       <c r="Z30" s="98"/>
       <c r="AA30" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB30" s="96"/>
       <c r="AL30" s="60"/>
@@ -6557,10 +6551,10 @@
       <c r="AB31" s="85"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL31" s="60"/>
     </row>
@@ -6572,10 +6566,10 @@
         <v>20432.701999999997</v>
       </c>
       <c r="F32" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="71" t="s">
         <v>282</v>
-      </c>
-      <c r="G32" s="71" t="s">
-        <v>283</v>
       </c>
       <c r="J32" s="25"/>
       <c r="Y32" s="36"/>
@@ -6596,7 +6590,7 @@
     <row r="33" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B33" s="98"/>
       <c r="C33" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="96"/>
       <c r="J33" s="25"/>
@@ -6648,10 +6642,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6670,11 +6664,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
       <c r="E2" s="162"/>
       <c r="F2" s="162"/>
       <c r="G2" s="162"/>
@@ -6704,28 +6698,28 @@
       <c r="I4" s="162"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="274" t="s">
+      <c r="H5" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="274" t="s">
+      <c r="I5" s="268" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6757,252 +6751,324 @@
     </row>
     <row r="7" spans="2:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="D7" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="E7" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="F7" s="269" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="275" t="s">
+      <c r="H7" s="269" t="s">
         <v>257</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="I7" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="275" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="137" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="237" t="s">
+    </row>
+    <row r="8" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="238" t="s">
+      <c r="C8" s="306" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="306" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="306" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="306"/>
+      <c r="G8" s="306" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="306" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="306" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="307" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="307" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="238" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="237" t="s">
+      <c r="D9" s="307" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237" t="s">
+      <c r="F9" s="307"/>
+      <c r="G9" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="237" t="s">
+      <c r="H9" s="307" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="237" t="s">
+      <c r="I9" s="307" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="239" t="s">
+    <row r="10" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="240" t="s">
+      <c r="C10" s="308" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="240" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="239" t="s">
+      <c r="D10" s="308" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239" t="s">
+      <c r="F10" s="308"/>
+      <c r="G10" s="308" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="239" t="s">
+      <c r="H10" s="308" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="239" t="s">
+      <c r="I10" s="308" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="237" t="s">
+    <row r="11" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C11" s="309" t="str">
+        <f>C8&amp;"-"&amp;"HV"</f>
+        <v>ELEC_HV-HV</v>
+      </c>
+      <c r="D11" s="309" t="str">
+        <f>D8&amp;" - out of grid"</f>
+        <v>High Voltage Electricity (&gt;110 kV) - out of grid</v>
+      </c>
+      <c r="E11" s="309" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="309"/>
+      <c r="G11" s="309" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="309" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="309"/>
+    </row>
+    <row r="12" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="308" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="310" t="str">
+        <f>C9&amp;"-"&amp;"MV"</f>
+        <v>ELEC_MV-MV</v>
+      </c>
+      <c r="D12" s="310" t="str">
+        <f t="shared" ref="D12:D13" si="0">D9&amp;" - out of grid"</f>
+        <v>Medium Voltage Electricity (1-60 kV) - out of grid</v>
+      </c>
+      <c r="E12" s="310" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="310"/>
+      <c r="G12" s="310" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="310" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="310"/>
+    </row>
+    <row r="13" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="307" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="309" t="str">
+        <f>C10&amp;"-"&amp;"LV"</f>
+        <v>ELEC_LV-LV</v>
+      </c>
+      <c r="D13" s="309" t="str">
+        <f t="shared" si="0"/>
+        <v>Low Voltage Electricity (&lt; 1kV) - out of grid</v>
+      </c>
+      <c r="E13" s="309" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="309" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="309"/>
+    </row>
+    <row r="14" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="308" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="308" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="308" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="308" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="308"/>
+      <c r="G14" s="308" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="308" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="308"/>
+      <c r="K14" s="164"/>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="307" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="307" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="307" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="307" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="307"/>
+      <c r="G15" s="307" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="307" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="307"/>
+    </row>
+    <row r="16" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="308" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="308" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="238" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="237" t="s">
+      <c r="D16" s="308" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="308" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="237" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="237" t="s">
+      <c r="F16" s="308"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="308" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="239" t="s">
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="307" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="307" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="307" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="307" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="307"/>
+      <c r="G17" s="307"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="307"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="311" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="311" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="311" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="311" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="311"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311"/>
+      <c r="I18" s="311"/>
+    </row>
+    <row r="33" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="296" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="296"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="261" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="240" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="239" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="239"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="237" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="238" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="238" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="237" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="237"/>
-      <c r="G12" s="237" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="237" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="237"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="239" t="s">
+      <c r="C34" s="261" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="240" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="240" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="240" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="237" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="238" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="238" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" s="238" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="238"/>
-      <c r="K14" s="164"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="241" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="241" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="264" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="241" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-    </row>
-    <row r="19" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="302" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="302"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="267" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="267" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="122" t="s">
+      <c r="C36" s="122" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C37" s="124" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="118" t="s">
+    <row r="38" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C38" s="118" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7015,10 +7081,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7033,17 +7099,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="271"/>
+      <c r="B1" s="265"/>
       <c r="C1" s="176"/>
       <c r="D1" s="176"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="153"/>
-      <c r="B2" s="272" t="s">
+      <c r="B2" s="266" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
       <c r="E2" s="164"/>
       <c r="F2" s="164"/>
       <c r="G2" s="164"/>
@@ -7066,31 +7132,31 @@
       <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="268" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="268" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="268" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="268" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="268" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="274" t="s">
+      <c r="H5" s="268" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="274" t="s">
+      <c r="I5" s="268" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="268" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7125,42 +7191,42 @@
     </row>
     <row r="7" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="D7" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="E7" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="F7" s="137" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="G7" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="137" t="s">
-        <v>204</v>
-      </c>
       <c r="H7" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="276" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="270" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="270" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="276" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="242" t="s">
+      <c r="B8" s="237" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="171" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="172" t="s">
         <v>93</v>
@@ -7178,14 +7244,14 @@
       <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="243" t="s">
+      <c r="B9" s="238" t="s">
         <v>91</v>
       </c>
       <c r="C9" s="199" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="200" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="200" t="s">
         <v>95</v>
@@ -7203,14 +7269,14 @@
       <c r="J9" s="199"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="242" t="s">
+      <c r="B10" s="237" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="171" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="172" t="s">
         <v>96</v>
@@ -7228,14 +7294,14 @@
       <c r="J10" s="171"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="238" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="199" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="200" t="s">
         <v>97</v>
@@ -7253,7 +7319,7 @@
       <c r="J11" s="199"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="242" t="s">
+      <c r="B12" s="237" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="171" t="s">
@@ -7278,7 +7344,7 @@
       <c r="J12" s="171"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="243" t="s">
+      <c r="B13" s="238" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="199" t="s">
@@ -7303,7 +7369,7 @@
       <c r="J13" s="199"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="242" t="s">
+      <c r="B14" s="237" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="171" t="s">
@@ -7328,162 +7394,212 @@
       <c r="J14" s="171"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="277" t="s">
+      <c r="B15" s="271" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="278" t="s">
+      <c r="C15" s="272" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="279" t="s">
+      <c r="D15" s="273" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="273" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="279" t="s">
+      <c r="F15" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="272" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" s="272" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="272"/>
+      <c r="J15" s="272"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="271" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="272" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="273" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="273" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="272" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="272" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="272"/>
+      <c r="J16" s="272"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="271" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="272" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="273" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="273" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="272" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="272" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="272"/>
+      <c r="J17" s="272"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="274" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="274" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="278" t="s">
+      <c r="E18" s="275" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="274" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="278" t="s">
-        <v>222</v>
-      </c>
-      <c r="H15" s="278" t="s">
+      <c r="G18" s="274" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="274" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="278"/>
-      <c r="J15" s="278"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="280" t="s">
+      <c r="I18" s="274"/>
+      <c r="J18" s="274"/>
+    </row>
+    <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="142"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="297"/>
+      <c r="G20" s="297"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="298" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="298"/>
+      <c r="D22" s="298"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="122"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="124"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="122"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="280" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="281" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="281" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="280" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="280" t="s">
-        <v>222</v>
-      </c>
-      <c r="H16" s="280" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="280"/>
-      <c r="J16" s="280"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="304" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="304"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="122" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="122"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="124"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="122" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="122" t="s">
+      <c r="C26" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="122"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="124" t="s">
+      <c r="D26" s="124"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="124"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="122" t="s">
+      <c r="C27" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="D27" s="122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="124" t="s">
+      <c r="C28" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="D28" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="124" t="s">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="122" t="s">
+      <c r="C29" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="D29" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="122" t="s">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="124" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="124" t="s">
+      <c r="C30" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="D30" s="124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="124" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="118"/>
+      <c r="D31" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7498,8 +7614,8 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="B2:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="C3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7526,8 +7642,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
-        <v>128</v>
+      <c r="B2" s="264" t="s">
+        <v>127</v>
       </c>
       <c r="C2" s="188"/>
       <c r="E2" s="146"/>
@@ -7563,7 +7679,7 @@
     </row>
     <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -7585,55 +7701,55 @@
         <v>76</v>
       </c>
       <c r="C5" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="E5" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="F5" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="G5" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="H5" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="134" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="134" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="134" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="134" t="s">
+      <c r="O5" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="136" t="s">
+      <c r="P5" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="136" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q5" s="136" t="s">
+      <c r="R5" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="R5" s="136" t="s">
+      <c r="S5" s="136" t="s">
         <v>138</v>
-      </c>
-      <c r="S5" s="136" t="s">
-        <v>139</v>
       </c>
       <c r="T5"/>
       <c r="W5"/>
@@ -7641,92 +7757,92 @@
     </row>
     <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="H6" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="305" t="s">
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="299"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="138" t="s">
+      <c r="P6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="Q6" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="R6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="R6" s="138" t="s">
+      <c r="S6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="S6" s="138" t="s">
-        <v>149</v>
       </c>
       <c r="Y6" s="181"/>
       <c r="Z6" s="143"/>
     </row>
     <row r="7" spans="2:30" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="300" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="300"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="306" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
-      <c r="O7" s="137" t="s">
+      <c r="P7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="Q7" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="R7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="R7" s="137" t="s">
+      <c r="S7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="S7" s="137" t="s">
-        <v>212</v>
       </c>
       <c r="Y7" s="181"/>
       <c r="Z7" s="143"/>
@@ -7740,58 +7856,58 @@
         <f>SEC_Processes!E10</f>
         <v>Existing Hard Coal Power Plants</v>
       </c>
-      <c r="D8" s="250" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="250" t="str">
+      <c r="D8" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="245" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="244">
+      <c r="F8" s="239">
         <f>(BALANCE!E9*3.6/10^3)/(BALANCE!G9*BALANCE!H9/10^6)</f>
         <v>0.37835241091502259</v>
       </c>
-      <c r="G8" s="245">
+      <c r="G8" s="240">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="244">
+      <c r="H8" s="239">
         <f>BALANCE!D9/1000</f>
         <v>17.023799999999998</v>
       </c>
-      <c r="I8" s="244">
+      <c r="I8" s="239">
         <v>13.973599999999999</v>
       </c>
-      <c r="J8" s="244">
+      <c r="J8" s="239">
         <v>9.5486000000000004</v>
       </c>
-      <c r="K8" s="244">
+      <c r="K8" s="239">
         <v>7.5076000000000001</v>
       </c>
-      <c r="L8" s="244">
+      <c r="L8" s="239">
         <v>5.294999999999999</v>
       </c>
-      <c r="M8" s="244">
+      <c r="M8" s="239">
         <v>3.5409999999999995</v>
       </c>
-      <c r="N8" s="244">
+      <c r="N8" s="239">
         <v>0</v>
       </c>
-      <c r="O8" s="246">
+      <c r="O8" s="241">
         <v>1</v>
       </c>
-      <c r="P8" s="246">
+      <c r="P8" s="241">
         <f>ROUNDUP((BALANCE!E9/BALANCE!D9*1000/8760),2)</f>
         <v>0.33</v>
       </c>
-      <c r="Q8" s="245">
+      <c r="Q8" s="240">
         <f>P8*1.25</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="R8" s="246">
+      <c r="R8" s="241">
         <f>44*4.5</f>
         <v>198</v>
       </c>
-      <c r="S8" s="245">
+      <c r="S8" s="240">
         <f>3.4/3.6*4.5</f>
         <v>4.25</v>
       </c>
@@ -7805,65 +7921,65 @@
         <f>SEC_Processes!E11</f>
         <v>Existing Brown Coal Power Plants</v>
       </c>
-      <c r="D9" s="265" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="251" t="str">
+      <c r="D9" s="259" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="246" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="247">
+      <c r="F9" s="242">
         <f>(BALANCE!E10*3.6/10^3)/(BALANCE!G10*BALANCE!H10/10^6)</f>
         <v>0.34425649711369494</v>
       </c>
-      <c r="G9" s="248">
+      <c r="G9" s="243">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="247">
+      <c r="H9" s="242">
         <f>BALANCE!D10/1000</f>
         <v>7.3911999999999995</v>
       </c>
-      <c r="I9" s="247">
+      <c r="I9" s="242">
         <v>7.5307599999999999</v>
       </c>
-      <c r="J9" s="247">
+      <c r="J9" s="242">
         <v>7.1887599999999994</v>
       </c>
-      <c r="K9" s="247">
+      <c r="K9" s="242">
         <v>3.145</v>
       </c>
-      <c r="L9" s="247">
+      <c r="L9" s="242">
         <v>1.4890000000000001</v>
       </c>
-      <c r="M9" s="247">
+      <c r="M9" s="242">
         <v>0.89</v>
       </c>
-      <c r="N9" s="247">
+      <c r="N9" s="242">
         <v>0</v>
       </c>
-      <c r="O9" s="249">
+      <c r="O9" s="244">
         <v>1</v>
       </c>
-      <c r="P9" s="249">
+      <c r="P9" s="244">
         <f>ROUNDUP((BALANCE!E10/BALANCE!D10*1000/8760),2)</f>
         <v>0.54</v>
       </c>
-      <c r="Q9" s="248">
+      <c r="Q9" s="243">
         <f>P9*1.25</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="R9" s="249">
+      <c r="R9" s="244">
         <f>49*4.5</f>
         <v>220.5</v>
       </c>
-      <c r="S9" s="249">
+      <c r="S9" s="244">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="270" t="s">
-        <v>273</v>
+      <c r="B13" s="264" t="s">
+        <v>272</v>
       </c>
       <c r="C13" s="188"/>
       <c r="U13" s="179"/>
@@ -7906,43 +8022,43 @@
         <v>76</v>
       </c>
       <c r="C16" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="E16" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="F16" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="136" t="s">
+      <c r="G16" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="136" t="s">
-        <v>134</v>
-      </c>
       <c r="H16" s="135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I16" s="135" t="s">
         <v>36</v>
       </c>
       <c r="J16" s="134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K16" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="L16" s="134" t="s">
+      <c r="M16" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="N16" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="M16" s="134" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="136" t="s">
+      <c r="O16" s="136" t="s">
         <v>138</v>
-      </c>
-      <c r="O16" s="136" t="s">
-        <v>139</v>
       </c>
       <c r="V16" s="182"/>
       <c r="Y16" s="182"/>
@@ -7954,46 +8070,46 @@
     </row>
     <row r="17" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="133" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="133" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="F17" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="133" t="s">
+      <c r="G17" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="H17" s="132" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17" s="132" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="132" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" s="132" t="s">
-        <v>274</v>
-      </c>
-      <c r="J17" s="129" t="s">
+      <c r="K17" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="133" t="s">
+      <c r="L17" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="133" t="s">
+      <c r="M17" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="133" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="133" t="s">
+      <c r="O17" s="133" t="s">
         <v>148</v>
-      </c>
-      <c r="O17" s="133" t="s">
-        <v>149</v>
       </c>
       <c r="Y17" s="182"/>
       <c r="Z17" s="182"/>
@@ -8001,46 +8117,46 @@
     </row>
     <row r="18" spans="2:30" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="131" t="s">
         <v>206</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>207</v>
       </c>
       <c r="F18" s="131" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>271</v>
+      </c>
+      <c r="I18" s="130" t="s">
+        <v>274</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="130" t="s">
-        <v>272</v>
-      </c>
-      <c r="I18" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="J18" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="131" t="s">
+      <c r="L18" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="L18" s="131" t="s">
+      <c r="M18" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="N18" s="131" t="s">
+      <c r="O18" s="131" t="s">
         <v>211</v>
-      </c>
-      <c r="O18" s="131" t="s">
-        <v>212</v>
       </c>
       <c r="Y18" s="182"/>
       <c r="Z18" s="182"/>
@@ -8048,16 +8164,16 @@
     </row>
     <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="127" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="126">
         <v>0.37835241091502259</v>
@@ -8093,7 +8209,7 @@
         <v>2020</v>
       </c>
       <c r="I20" s="124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J20" s="123">
         <v>17.023799999999998</v>
@@ -8117,7 +8233,7 @@
         <v>2021</v>
       </c>
       <c r="I21" s="121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J21" s="120">
         <v>17.023799999999998</v>
@@ -8290,8 +8406,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
-        <v>152</v>
+      <c r="B2" s="264" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -8327,7 +8443,7 @@
     </row>
     <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -8344,139 +8460,139 @@
       <c r="R4" s="155"/>
     </row>
     <row r="5" spans="2:19" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="274" t="s">
+      <c r="C5" s="268" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="268" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="268" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="G5" s="268" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="H5" s="276" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="276" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="276" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="276" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="276" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="276" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="276" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="282" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="282" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="282" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="282" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="282" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="282" t="s">
-        <v>191</v>
-      </c>
-      <c r="N5" s="282" t="s">
+      <c r="O5" s="268" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="274" t="s">
+      <c r="P5" s="268" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="274" t="s">
+      <c r="Q5" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="274" t="s">
+      <c r="R5" s="268" t="s">
         <v>138</v>
-      </c>
-      <c r="R5" s="274" t="s">
-        <v>139</v>
       </c>
       <c r="S5"/>
     </row>
     <row r="6" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="H6" s="299" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="305" t="s">
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="299"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="138" t="s">
+      <c r="P6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="Q6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="138" t="s">
+      <c r="R6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="R6" s="138" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="300" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="300"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="306" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
-      <c r="O7" s="137" t="s">
+      <c r="P7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="Q7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="Q7" s="137" t="s">
+      <c r="R7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="R7" s="137" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,7 +8605,7 @@
         <v>Existing Onshore Wind Turbines</v>
       </c>
       <c r="D8" s="167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="167" t="str">
         <f>SEC_Comm!C8</f>
@@ -8523,18 +8639,18 @@
       <c r="N8" s="169">
         <v>0</v>
       </c>
-      <c r="O8" s="252">
+      <c r="O8" s="247">
         <v>0.05</v>
       </c>
-      <c r="P8" s="252">
+      <c r="P8" s="247">
         <f>BALANCE!E13/BALANCE!D13*1000/8760+0.01</f>
         <v>0.29637457639806086</v>
       </c>
-      <c r="Q8" s="252">
+      <c r="Q8" s="247">
         <f>50*4.5</f>
         <v>225</v>
       </c>
-      <c r="R8" s="252">
+      <c r="R8" s="247">
         <v>1E-3</v>
       </c>
     </row>
@@ -8548,7 +8664,7 @@
         <v>Existing Photovoltaics (all Types)</v>
       </c>
       <c r="D9" s="198" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="198" t="str">
         <f>SEC_Comm!C8</f>
@@ -8582,17 +8698,17 @@
       <c r="N9" s="230">
         <v>0</v>
       </c>
-      <c r="O9" s="253">
+      <c r="O9" s="248">
         <v>0.05</v>
       </c>
-      <c r="P9" s="253">
+      <c r="P9" s="248">
         <v>1</v>
       </c>
-      <c r="Q9" s="253">
+      <c r="Q9" s="248">
         <f>16*4.5</f>
         <v>72</v>
       </c>
-      <c r="R9" s="253">
+      <c r="R9" s="248">
         <v>1E-3</v>
       </c>
     </row>
@@ -8600,7 +8716,7 @@
       <c r="B12" s="143"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I16" s="273"/>
+      <c r="I16" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8654,8 +8770,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:34" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
-        <v>156</v>
+      <c r="B2" s="264" t="s">
+        <v>155</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -8679,13 +8795,13 @@
       <c r="Q3" s="148"/>
       <c r="R3" s="148"/>
       <c r="W3" s="188" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X3" s="188"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -8702,58 +8818,58 @@
       <c r="R4" s="148"/>
     </row>
     <row r="5" spans="2:34" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="274" t="s">
+      <c r="C5" s="268" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="268" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="268" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="G5" s="268" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="268" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="268" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="268" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="268" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="274" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="274" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="274" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="274" t="s">
+      <c r="L5" s="276" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="276" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="282" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="282" t="s">
+      <c r="N5" s="268" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="274" t="s">
+      <c r="O5" s="268" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="274" t="s">
+      <c r="P5" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="274" t="s">
+      <c r="Q5" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="274" t="s">
-        <v>139</v>
-      </c>
-      <c r="R5" s="274"/>
+      <c r="R5" s="268"/>
       <c r="S5"/>
       <c r="W5" s="203" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X5" s="204"/>
       <c r="Y5" s="204"/>
@@ -8769,139 +8885,139 @@
     </row>
     <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="138" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="138" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="138" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="138" t="s">
+      <c r="L6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="L6" s="138" t="s">
+      <c r="M6" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="N6" s="138" t="s">
+      <c r="O6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="138" t="s">
+      <c r="P6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="Q6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="Q6" s="138" t="s">
-        <v>149</v>
       </c>
       <c r="R6" s="138"/>
       <c r="W6" s="206" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="X6" s="206" t="s">
+      <c r="Y6" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="Y6" s="206" t="s">
+      <c r="Z6" s="206" t="s">
         <v>169</v>
-      </c>
-      <c r="Z6" s="206" t="s">
-        <v>170</v>
       </c>
       <c r="AA6" s="206" t="s">
         <v>28</v>
       </c>
       <c r="AB6" s="206" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC6" s="206" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" s="206" t="s">
+      <c r="AD6" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="AD6" s="206" t="s">
+      <c r="AE6" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="AE6" s="206" t="s">
+      <c r="AF6" s="206" t="s">
         <v>174</v>
       </c>
-      <c r="AF6" s="206" t="s">
+      <c r="AG6" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="AG6" s="206" t="s">
+      <c r="AH6" s="206" t="s">
         <v>176</v>
-      </c>
-      <c r="AH6" s="206" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="137" t="s">
+      <c r="J7" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="I7" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="J7" s="137" t="s">
-        <v>217</v>
-      </c>
       <c r="K7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="N7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="L7" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="M7" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7" s="137" t="s">
+      <c r="O7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="O7" s="137" t="s">
+      <c r="P7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="P7" s="137" t="s">
+      <c r="Q7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="Q7" s="137" t="s">
-        <v>212</v>
       </c>
       <c r="R7" s="137"/>
       <c r="W7" s="206"/>
@@ -8927,7 +9043,7 @@
         <v>Existing Hard Coal CHPs</v>
       </c>
       <c r="D8" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="167"/>
       <c r="F8" s="232">
@@ -8967,50 +9083,50 @@
         <v>4</v>
       </c>
       <c r="R8" s="234"/>
-      <c r="U8" s="307" t="str">
+      <c r="U8" s="301" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="V8" s="308" t="str">
+      <c r="V8" s="303" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="W8" s="307">
+      <c r="W8" s="301">
         <f>L8*K8*O8</f>
         <v>58.53528</v>
       </c>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="309">
+      <c r="X8" s="301"/>
+      <c r="Y8" s="302">
         <f>L8*K8*O8/3.6</f>
         <v>16.259799999999998</v>
       </c>
-      <c r="Z8" s="307">
+      <c r="Z8" s="301">
         <f>Y8*3.6</f>
         <v>58.535279999999993</v>
       </c>
-      <c r="AA8" s="307"/>
-      <c r="AB8" s="307"/>
-      <c r="AC8" s="309">
+      <c r="AA8" s="301"/>
+      <c r="AB8" s="301"/>
+      <c r="AC8" s="302">
         <f>Z8*G8</f>
         <v>137.01729999999998</v>
       </c>
-      <c r="AD8" s="307">
+      <c r="AD8" s="301">
         <f>Z8+AC8</f>
         <v>195.55257999999998</v>
       </c>
-      <c r="AE8" s="307">
+      <c r="AE8" s="301">
         <f>Z8/AC8</f>
         <v>0.42721087045212541</v>
       </c>
-      <c r="AF8" s="307">
+      <c r="AF8" s="301">
         <f>W8/F8</f>
         <v>236.30475007999996</v>
       </c>
-      <c r="AG8" s="307">
+      <c r="AG8" s="301">
         <f>AF8*10^6/(BALANCE!H11/1000)/1000</f>
         <v>11204.8</v>
       </c>
-      <c r="AH8" s="307">
+      <c r="AH8" s="301">
         <f>AD8/AF8</f>
         <v>0.82754400803960348</v>
       </c>
@@ -9031,32 +9147,32 @@
       <c r="K9" s="166"/>
       <c r="L9" s="186"/>
       <c r="M9" s="186"/>
-      <c r="N9" s="255"/>
-      <c r="O9" s="255"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="255"/>
+      <c r="N9" s="250"/>
+      <c r="O9" s="250"/>
+      <c r="P9" s="250"/>
+      <c r="Q9" s="250"/>
       <c r="R9" s="166"/>
-      <c r="U9" s="307"/>
-      <c r="V9" s="308"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="309"/>
-      <c r="Z9" s="307"/>
-      <c r="AA9" s="307"/>
-      <c r="AB9" s="307"/>
-      <c r="AC9" s="309"/>
-      <c r="AD9" s="307"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="307"/>
-      <c r="AG9" s="307"/>
-      <c r="AH9" s="307"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="301"/>
+      <c r="Y9" s="302"/>
+      <c r="Z9" s="301"/>
+      <c r="AA9" s="301"/>
+      <c r="AB9" s="301"/>
+      <c r="AC9" s="302"/>
+      <c r="AD9" s="301"/>
+      <c r="AE9" s="301"/>
+      <c r="AF9" s="301"/>
+      <c r="AG9" s="301"/>
+      <c r="AH9" s="301"/>
     </row>
     <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="166"/>
       <c r="C10" s="166"/>
       <c r="D10" s="166"/>
       <c r="E10" s="167" t="str">
-        <f>SEC_Comm!C11</f>
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
       <c r="F10" s="178"/>
@@ -9067,25 +9183,25 @@
       <c r="K10" s="166"/>
       <c r="L10" s="186"/>
       <c r="M10" s="186"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
+      <c r="N10" s="250"/>
+      <c r="O10" s="250"/>
+      <c r="P10" s="250"/>
+      <c r="Q10" s="250"/>
       <c r="R10" s="166"/>
-      <c r="U10" s="307"/>
-      <c r="V10" s="308"/>
-      <c r="W10" s="307"/>
-      <c r="X10" s="307"/>
-      <c r="Y10" s="309"/>
-      <c r="Z10" s="307"/>
-      <c r="AA10" s="307"/>
-      <c r="AB10" s="307"/>
-      <c r="AC10" s="309"/>
-      <c r="AD10" s="307"/>
-      <c r="AE10" s="307"/>
-      <c r="AF10" s="307"/>
-      <c r="AG10" s="307"/>
-      <c r="AH10" s="307"/>
+      <c r="U10" s="301"/>
+      <c r="V10" s="303"/>
+      <c r="W10" s="301"/>
+      <c r="X10" s="301"/>
+      <c r="Y10" s="302"/>
+      <c r="Z10" s="301"/>
+      <c r="AA10" s="301"/>
+      <c r="AB10" s="301"/>
+      <c r="AC10" s="302"/>
+      <c r="AD10" s="301"/>
+      <c r="AE10" s="301"/>
+      <c r="AF10" s="301"/>
+      <c r="AG10" s="301"/>
+      <c r="AH10" s="301"/>
     </row>
     <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="190" t="str">
@@ -9097,17 +9213,17 @@
         <v>Existing Natural Gas CHPs</v>
       </c>
       <c r="D11" s="190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" s="190"/>
       <c r="F11" s="236">
         <v>0.55000000000000004</v>
       </c>
       <c r="G11" s="235"/>
-      <c r="H11" s="254">
+      <c r="H11" s="249">
         <v>0.2</v>
       </c>
-      <c r="I11" s="254">
+      <c r="I11" s="249">
         <v>0.7</v>
       </c>
       <c r="J11" s="235">
@@ -9124,72 +9240,72 @@
         <f>L11</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="N11" s="254">
+      <c r="N11" s="249">
         <v>1</v>
       </c>
-      <c r="O11" s="254">
+      <c r="O11" s="249">
         <v>0.59850000000000003</v>
       </c>
-      <c r="P11" s="254">
+      <c r="P11" s="249">
         <v>97.199999999999989</v>
       </c>
-      <c r="Q11" s="254">
+      <c r="Q11" s="249">
         <v>2.6999999999999997</v>
       </c>
       <c r="R11" s="235"/>
-      <c r="U11" s="307" t="str">
+      <c r="U11" s="301" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="V11" s="308" t="str">
+      <c r="V11" s="303" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="W11" s="307">
+      <c r="W11" s="301">
         <f>L11*K11*O11</f>
         <v>31.265271324000008</v>
       </c>
-      <c r="X11" s="307">
+      <c r="X11" s="301">
         <f>L11*K11*O11/3.6</f>
         <v>8.6847975900000023</v>
       </c>
-      <c r="Y11" s="309">
+      <c r="Y11" s="302">
         <f>BALANCE!E12/1000</f>
         <v>7.4646000000000008</v>
       </c>
-      <c r="Z11" s="307">
+      <c r="Z11" s="301">
         <f>Y11*3.6</f>
         <v>26.872560000000004</v>
       </c>
-      <c r="AA11" s="307">
+      <c r="AA11" s="301">
         <f>X11-Y11</f>
         <v>1.2201975900000015</v>
       </c>
-      <c r="AB11" s="307">
+      <c r="AB11" s="301">
         <f>AA11*3.6</f>
         <v>4.3927113240000057</v>
       </c>
-      <c r="AC11" s="309">
+      <c r="AC11" s="302">
         <f>AB11/J11</f>
         <v>17.570845296000023</v>
       </c>
-      <c r="AD11" s="307">
+      <c r="AD11" s="301">
         <f>Z11+AC11</f>
         <v>44.443405296000023</v>
       </c>
-      <c r="AE11" s="307">
+      <c r="AE11" s="301">
         <f>Z11/AC11</f>
         <v>1.5293834501017149</v>
       </c>
-      <c r="AF11" s="307">
+      <c r="AF11" s="301">
         <f>W11/F11</f>
         <v>56.845947861818189</v>
       </c>
-      <c r="AG11" s="307">
+      <c r="AG11" s="301">
         <f>AF11*10^6/(BALANCE!J12/1000)/1000</f>
         <v>1750.8839086401019</v>
       </c>
-      <c r="AH11" s="307">
+      <c r="AH11" s="301">
         <f>AD11/AF11</f>
         <v>0.78182187064649855</v>
       </c>
@@ -9215,27 +9331,27 @@
       <c r="P12" s="192"/>
       <c r="Q12" s="192"/>
       <c r="R12" s="192"/>
-      <c r="U12" s="307"/>
-      <c r="V12" s="308"/>
-      <c r="W12" s="307"/>
-      <c r="X12" s="307"/>
-      <c r="Y12" s="309"/>
-      <c r="Z12" s="307"/>
-      <c r="AA12" s="307"/>
-      <c r="AB12" s="307"/>
-      <c r="AC12" s="309"/>
-      <c r="AD12" s="307"/>
-      <c r="AE12" s="307"/>
-      <c r="AF12" s="307"/>
-      <c r="AG12" s="307"/>
-      <c r="AH12" s="307"/>
+      <c r="U12" s="301"/>
+      <c r="V12" s="303"/>
+      <c r="W12" s="301"/>
+      <c r="X12" s="301"/>
+      <c r="Y12" s="302"/>
+      <c r="Z12" s="301"/>
+      <c r="AA12" s="301"/>
+      <c r="AB12" s="301"/>
+      <c r="AC12" s="302"/>
+      <c r="AD12" s="301"/>
+      <c r="AE12" s="301"/>
+      <c r="AF12" s="301"/>
+      <c r="AG12" s="301"/>
+      <c r="AH12" s="301"/>
     </row>
     <row r="13" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="195"/>
       <c r="C13" s="195"/>
       <c r="D13" s="195"/>
       <c r="E13" s="196" t="str">
-        <f>SEC_Comm!C11</f>
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
       <c r="F13" s="197"/>
@@ -9251,20 +9367,20 @@
       <c r="P13" s="195"/>
       <c r="Q13" s="195"/>
       <c r="R13" s="195"/>
-      <c r="U13" s="307"/>
-      <c r="V13" s="308"/>
-      <c r="W13" s="307"/>
-      <c r="X13" s="307"/>
-      <c r="Y13" s="309"/>
-      <c r="Z13" s="307"/>
-      <c r="AA13" s="307"/>
-      <c r="AB13" s="307"/>
-      <c r="AC13" s="309"/>
-      <c r="AD13" s="307"/>
-      <c r="AE13" s="307"/>
-      <c r="AF13" s="307"/>
-      <c r="AG13" s="307"/>
-      <c r="AH13" s="307"/>
+      <c r="U13" s="301"/>
+      <c r="V13" s="303"/>
+      <c r="W13" s="301"/>
+      <c r="X13" s="301"/>
+      <c r="Y13" s="302"/>
+      <c r="Z13" s="301"/>
+      <c r="AA13" s="301"/>
+      <c r="AB13" s="301"/>
+      <c r="AC13" s="302"/>
+      <c r="AD13" s="301"/>
+      <c r="AE13" s="301"/>
+      <c r="AF13" s="301"/>
+      <c r="AG13" s="301"/>
+      <c r="AH13" s="301"/>
     </row>
     <row r="18" spans="29:34" x14ac:dyDescent="0.25">
       <c r="AC18" s="143"/>
@@ -9299,6 +9415,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AG11:AG13"/>
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AE11:AE13"/>
     <mergeCell ref="AF11:AF13"/>
@@ -9311,22 +9443,6 @@
     <mergeCell ref="AA11:AA13"/>
     <mergeCell ref="AB11:AB13"/>
     <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -9371,8 +9487,8 @@
       <c r="L1" s="141"/>
     </row>
     <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
-        <v>179</v>
+      <c r="B2" s="264" t="s">
+        <v>178</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -9396,7 +9512,7 @@
     </row>
     <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="156" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="154"/>
       <c r="G4" s="154"/>
@@ -9408,117 +9524,117 @@
       <c r="M4" s="155"/>
     </row>
     <row r="5" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="274" t="s">
+      <c r="C5" s="268" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="268" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="268" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="G5" s="268" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="H5" s="276" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="268" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="282" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="274" t="s">
+      <c r="J5" s="268" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="K5" s="268" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="274" t="s">
+      <c r="L5" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="274" t="s">
+      <c r="M5" s="268" t="s">
         <v>138</v>
-      </c>
-      <c r="M5" s="274" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="G6" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="H6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="I6" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="138" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="138" t="s">
+      <c r="K6" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="138" t="s">
+      <c r="L6" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="138" t="s">
+      <c r="M6" s="138" t="s">
         <v>148</v>
-      </c>
-      <c r="M6" s="138" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="277" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="283" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="283" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="137" t="s">
+      <c r="K7" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="K7" s="137" t="s">
+      <c r="L7" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="L7" s="137" t="s">
+      <c r="M7" s="137" t="s">
         <v>211</v>
-      </c>
-      <c r="M7" s="137" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9531,13 +9647,13 @@
         <v>Existing Hard Coal Heat Only Plants</v>
       </c>
       <c r="D8" s="173" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="173" t="str">
-        <f>SEC_Comm!C11</f>
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F8" s="256">
+      <c r="F8" s="251">
         <f>(H8*G8*K8)/(BALANCE!G15*BALANCE!H15/10^6)</f>
         <v>0.90573900332985746</v>
       </c>
@@ -9559,10 +9675,10 @@
         <f>ROUNDUP((BALANCE!F15/1000)/(H8*G8),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8" s="263">
+      <c r="L8" s="258">
         <v>14.323</v>
       </c>
-      <c r="M8" s="263">
+      <c r="M8" s="258">
         <v>3.617</v>
       </c>
     </row>
@@ -9575,10 +9691,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Arkusz7"/>
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9586,15 +9702,15 @@
     <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="9" max="9" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
-        <v>180</v>
+      <c r="B2" s="264" t="s">
+        <v>179</v>
       </c>
       <c r="C2" s="161"/>
       <c r="E2" s="146"/>
@@ -9606,57 +9722,57 @@
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="154"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="268" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="154"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="274" t="s">
+      <c r="D5" s="268" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="E5" s="268" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="F5" s="268" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="274" t="s">
-        <v>133</v>
       </c>
       <c r="I5" s="165"/>
     </row>
     <row r="6" spans="2:9" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="F6" s="138" t="s">
         <v>142</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="31.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="137" t="s">
         <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="137" t="s">
         <v>23</v>
@@ -9665,7 +9781,7 @@
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="192" t="str">
         <f>SEC_Processes!D15</f>
-        <v>TRANSF_HV-LV</v>
+        <v>TRANSF_HV-HV</v>
       </c>
       <c r="C8" s="192" t="str">
         <f>SEC_Processes!E15</f>
@@ -9676,46 +9792,92 @@
         <v>ELEC_HV</v>
       </c>
       <c r="E8" s="192" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="F8" s="257">
-        <f>BALANCE!E29*BALANCE!E30*BALANCE!E31</f>
-        <v>0.90779680266244211</v>
+        <f>SEC_Comm!C11</f>
+        <v>ELEC_HV-HV</v>
+      </c>
+      <c r="F8" s="252">
+        <f>BALANCE!E29</f>
+        <v>0.97706171756374371</v>
       </c>
       <c r="H8" s="1">
         <f>1-F8</f>
-        <v>9.2203197337557885E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="str">
+        <v>2.2938282436256285E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="192" t="str">
         <f>SEC_Processes!D16</f>
+        <v>TRANSF_MV-MV</v>
+      </c>
+      <c r="C9" s="192" t="str">
+        <f>SEC_Processes!E16</f>
+        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
+      </c>
+      <c r="D9" s="192" t="str">
+        <f>E8</f>
+        <v>ELEC_HV-HV</v>
+      </c>
+      <c r="E9" s="192" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>ELEC_MV-MV</v>
+      </c>
+      <c r="F9" s="252">
+        <f>BALANCE!E30</f>
+        <v>0.9764416403645515</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="192" t="str">
+        <f>SEC_Processes!D17</f>
+        <v>TRANSF_LV-LV</v>
+      </c>
+      <c r="C10" s="192" t="str">
+        <f>SEC_Processes!E17</f>
+        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
+      </c>
+      <c r="D10" s="192" t="str">
+        <f>E9</f>
+        <v>ELEC_MV-MV</v>
+      </c>
+      <c r="E10" s="192" t="str">
+        <f>SEC_Comm!C13</f>
+        <v>ELEC_LV-LV</v>
+      </c>
+      <c r="F10" s="252">
+        <f>BALANCE!E31</f>
+        <v>0.9515253427786764</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="173" t="str">
+        <f>SEC_Processes!D18</f>
         <v>TRANSF_HT-LT</v>
       </c>
-      <c r="C9" s="173" t="str">
-        <f>SEC_Processes!E16</f>
+      <c r="C11" s="173" t="str">
+        <f>SEC_Processes!E18</f>
         <v>Heat Transformation and Distribution</v>
       </c>
-      <c r="D9" s="177" t="str">
-        <f>SEC_Comm!C11</f>
+      <c r="D11" s="177" t="str">
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="E9" s="177" t="str">
-        <f>SEC_Comm!C12</f>
+      <c r="E11" s="177" t="str">
+        <f>SEC_Comm!C15</f>
         <v>HEAT_LT</v>
       </c>
-      <c r="F9" s="258">
+      <c r="F11" s="253">
         <f>BALANCE!E32</f>
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="143"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="143"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9742,7 +9904,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
@@ -9763,56 +9925,56 @@
     <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="158"/>
       <c r="C4" s="156" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="160"/>
       <c r="E4" s="160"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="B5" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="268" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="268" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="274" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="274" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="266" t="s">
-        <v>183</v>
+      <c r="F5" s="268" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="260" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="299" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="305" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
     </row>
     <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="300" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="306" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="167" t="str">
@@ -9822,11 +9984,11 @@
       <c r="C8" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="259">
+      <c r="D8" s="254">
         <v>94.19</v>
       </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="190" t="str">
@@ -9836,11 +9998,11 @@
       <c r="C9" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260">
+      <c r="D9" s="255"/>
+      <c r="E9" s="255">
         <v>109.08</v>
       </c>
-      <c r="F9" s="260"/>
+      <c r="F9" s="255"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="167" t="str">
@@ -9850,11 +10012,11 @@
       <c r="C10" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="259">
+      <c r="D10" s="254">
         <v>94.19</v>
       </c>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="190" t="str">
@@ -9864,9 +10026,9 @@
       <c r="C11" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260">
+      <c r="D11" s="255"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="255">
         <v>55.82</v>
       </c>
     </row>
@@ -9878,16 +10040,16 @@
       <c r="C12" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="261">
+      <c r="D12" s="256">
         <v>94.19</v>
       </c>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
       <c r="H12" s="143"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -10124,6 +10286,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
@@ -10132,15 +10303,6 @@
     <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10163,6 +10325,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10171,12 +10341,4 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>